--- a/biology/Botanique/Molluginaceae/Molluginaceae.xlsx
+++ b/biology/Botanique/Molluginaceae/Molluginaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Molluginacées regroupe des plantes dicotylédones ; elle comprend une centaine d'espèces réparties en 6 à 15 genres.
 Ce sont essentiellement des plantes herbacées ou des arbustes, annuels ou pérennes, principalement des régions subtropicales à tropicales de l'hémisphère sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Mollugo dérivé du latin mollis, mou, et du suffixe -ago, « état ; comme », en référence à l'espèce Galium mollugo (Rubiaceae), à laquelle il ressemble en raison de ses feuilles verticillées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Mollugo dérivé du latin mollis, mou, et du suffixe -ago, « état ; comme », en référence à l'espèce Galium mollugo (Rubiaceae), à laquelle il ressemble en raison de ses feuilles verticillées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017) :
 Adenogramma (en) Reichenbach
 Coelanthum (en) Fenzl
 Glinus (en) L.
@@ -557,7 +573,7 @@
 Psammotropha (es) Ecklund &amp; Zeyher
 Suessenguthiella (en) Friedrich
 Trigastrotheca (en) F. Mueller
-Selon NCBI  (2 fév. 2017)[3] :
+Selon NCBI  (2 fév. 2017) :
 Adenogramma
 Coelanthum
 Glinus
@@ -568,10 +584,10 @@
 Polpoda
 Psammotropha
 Suessenguthiella
-Selon ITIS      (2 fév. 2017)[4] :
+Selon ITIS      (2 fév. 2017) :
 Glinus L.
 Mollugo L.
-Selon DELTA Angio           (3 mai 2010)[5] :
+Selon DELTA Angio           (3 mai 2010) :
 Adenogramma
 Coelanthum
 Corbichonia
@@ -614,9 +630,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 mai 2010) :
 genre Adenogramma
 Adenogramma lichtensteiniana
 Adenogramma sp. Goldblatt 11515
